--- a/docs/PIN_Mapping.xlsx
+++ b/docs/PIN_Mapping.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DUNE_Daphne_v3_AFE\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D7D4F3-D5E4-44DB-AA47-388988FF2AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
   <si>
     <t>AFE 0</t>
   </si>
@@ -22,9 +31,6 @@
     <t>AFE 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>AFE 3</t>
   </si>
   <si>
@@ -301,9 +307,6 @@
     <t>D53-2</t>
   </si>
   <si>
-    <t>SPI_3</t>
-  </si>
-  <si>
     <t>AD14</t>
   </si>
   <si>
@@ -314,60 +317,153 @@
   </si>
   <si>
     <t>AD15</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Kria Conn</t>
+  </si>
+  <si>
+    <t>BGA Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -557,389 +653,513 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="I8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="I10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="1" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="1" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="1" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="1" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="5">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/PIN_Mapping.xlsx
+++ b/docs/PIN_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DUNE_Daphne_v3_AFE\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D7D4F3-D5E4-44DB-AA47-388988FF2AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F01F97-FF03-46A8-8529-F1C42D2379DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
   <si>
     <t>AFE 0</t>
   </si>
@@ -326,6 +326,24 @@
   </si>
   <si>
     <t>BGA Name</t>
+  </si>
+  <si>
+    <t>PL_SCL</t>
+  </si>
+  <si>
+    <t>B44-2</t>
+  </si>
+  <si>
+    <t>PL_SDA</t>
+  </si>
+  <si>
+    <t>B45-2</t>
+  </si>
+  <si>
+    <t>AD11</t>
+  </si>
+  <si>
+    <t>AD10</t>
   </si>
 </sst>
 </file>
@@ -396,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -419,11 +437,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -445,6 +515,17 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,10 +744,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:K20"/>
+  <dimension ref="A3:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -674,7 +755,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>99</v>
       </c>
@@ -699,7 +780,7 @@
       </c>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>100</v>
@@ -732,7 +813,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -745,7 +826,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -764,7 +845,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -783,7 +864,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -818,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -853,77 +934,77 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:11" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -958,7 +1039,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
@@ -993,7 +1074,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
@@ -1028,7 +1109,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
@@ -1076,7 +1157,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>87</v>
       </c>
@@ -1095,7 +1176,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>90</v>
       </c>
@@ -1114,7 +1195,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>93</v>
       </c>
@@ -1133,24 +1214,75 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
